--- a/tradept/Excel/Localization/english/Y野怪发射器_MonsterEmitters_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/Y野怪发射器_MonsterEmitters_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AF9171-5C19-486E-8273-CA9E6B64772B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7A873A-9345-4143-A14E-C41C62420BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -86,19 +86,19 @@
     <t>自适应野怪发射器</t>
   </si>
   <si>
-    <t>Un grupo de &lt;color=red&gt;Merodeadores&lt;/color&gt; ha establecido un campamento cerca de &lt;color=red&gt;{0}&lt;/color&gt;. Tales acciones malvadas tomadas a plena luz del día no deben quedar impunes.</t>
-  </si>
-  <si>
-    <t>Hay una &lt;color=red&gt;Cueva de Lobos&lt;/color&gt; cerca de &lt;color=red&gt;{0}&lt;/color&gt;. ¡Ten precaución extrema al acercarte! Estos lobos solo aparecen durante la &lt;color=red&gt;noche&lt;/color&gt;, por lo que es seguro cruzar su territorio durante el día.</t>
-  </si>
-  <si>
-    <t>Un bosque cerca de &lt;color=red&gt;{0}&lt;/color&gt; está lleno de peligrosas &lt;color=red&gt;Dríadas&lt;/color&gt;. Parece que solo despiertan durante la &lt;color=red&gt;noche&lt;/color&gt; y atacan a aventureros menos experimentados.</t>
-  </si>
-  <si>
-    <t>Los lugareños han informado que escuchan canciones de &lt;color=red&gt;Bahar&lt;/color&gt; cerca de un pequeño lago cerca de &lt;color=red&gt;{0}&lt;/color&gt; cada vez que &lt;color=red&gt;llueve&lt;/color&gt;…</t>
-  </si>
-  <si>
-    <t>¡&lt;color=red&gt;Bandidos&lt;/color&gt; han estado atacando a desafortunadas caravanas cerca de &lt;color=red&gt;{0}&lt;/color&gt;!</t>
+    <t>Um grupo de &lt;color=red&gt;Bandidos&lt;/color&gt; montou acampamento perto de &lt;color=red&gt;{0}&lt;/color&gt;. Tais ações malignas realizadas em plena &lt;color=red&gt;luz do dia&lt;/color&gt; não devem passar impunes.</t>
+  </si>
+  <si>
+    <t>Existe um &lt;color=red&gt;Esconderijo de Lobos&lt;/color&gt; perto de &lt;color=red&gt;{0}&lt;/color&gt;. Tome extrema precaução ao se aproximar! Pois esses lobos só aparecem durante a &lt;color=red&gt;noite&lt;/color&gt;, sendo seguro atravessar seu território durante o dia.</t>
+  </si>
+  <si>
+    <t>Uma floresta próxima a &lt;color=red&gt;{0}&lt;/color&gt; está cheia de &lt;color=red&gt;Dríades&lt;/color&gt; perigosas! Elas só parecem despertar à &lt;color=red&gt;noite&lt;/color&gt; e atacam aventureiros menos experientes.</t>
+  </si>
+  <si>
+    <t>Moradores relataram ouvir canções de &lt;color=red&gt;Bahar&lt;/color&gt; perto de um pequeno lago próximo a &lt;color=red&gt;{0}&lt;/color&gt; sempre que &lt;color=red&gt;chove&lt;/color&gt;...</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;Bandidos&lt;/color&gt; têm atacado caravanas infelizes perto de &lt;color=red&gt;{0}&lt;/color&gt;!</t>
   </si>
 </sst>
 </file>
@@ -239,36 +239,36 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="普通" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="普通 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
@@ -627,11 +627,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="240.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45">
       <c r="A1" s="5" t="s">

--- a/tradept/Excel/Localization/english/Y野怪发射器_MonsterEmitters_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/Y野怪发射器_MonsterEmitters_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\Main\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7A873A-9345-4143-A14E-C41C62420BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DF6D0F-16EA-4718-BF5B-85C5A7F03286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -86,19 +86,19 @@
     <t>自适应野怪发射器</t>
   </si>
   <si>
-    <t>Um grupo de &lt;color=red&gt;Bandidos&lt;/color&gt; montou acampamento perto de &lt;color=red&gt;{0}&lt;/color&gt;. Tais ações malignas realizadas em plena &lt;color=red&gt;luz do dia&lt;/color&gt; não devem passar impunes.</t>
-  </si>
-  <si>
-    <t>Existe um &lt;color=red&gt;Esconderijo de Lobos&lt;/color&gt; perto de &lt;color=red&gt;{0}&lt;/color&gt;. Tome extrema precaução ao se aproximar! Pois esses lobos só aparecem durante a &lt;color=red&gt;noite&lt;/color&gt;, sendo seguro atravessar seu território durante o dia.</t>
-  </si>
-  <si>
-    <t>Uma floresta próxima a &lt;color=red&gt;{0}&lt;/color&gt; está cheia de &lt;color=red&gt;Dríades&lt;/color&gt; perigosas! Elas só parecem despertar à &lt;color=red&gt;noite&lt;/color&gt; e atacam aventureiros menos experientes.</t>
-  </si>
-  <si>
-    <t>Moradores relataram ouvir canções de &lt;color=red&gt;Bahar&lt;/color&gt; perto de um pequeno lago próximo a &lt;color=red&gt;{0}&lt;/color&gt; sempre que &lt;color=red&gt;chove&lt;/color&gt;...</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;Bandidos&lt;/color&gt; têm atacado caravanas infelizes perto de &lt;color=red&gt;{0}&lt;/color&gt;!</t>
+    <t>Um grupo de &lt;color=red&gt;Salteadores&lt;/color&gt; montou acampamento próximo a &lt;color=red&gt;{0}&lt;/color&gt;. Tais ações malignas realizadas à &lt;color=red&gt;luz do dia&lt;/color&gt; não podem ficar impunes.</t>
+  </si>
+  <si>
+    <t>Há uma &lt;color=red&gt;Toca de Lobos&lt;/color&gt; perto de &lt;color=red&gt;{0}&lt;/color&gt;. Tome precauções extremas ao se aproximar! Como esses lobos só aparecem à &lt;color=red&gt;noite&lt;/color&gt;, atravessar o território deles é seguro durante o dia.</t>
+  </si>
+  <si>
+    <t>Uma floresta próxima a &lt;color=red&gt;{0}&lt;/color&gt; está repleta de perigosas &lt;color=red&gt;Dríades&lt;/color&gt;! Elas só parecem despertar à &lt;color=red&gt;noite&lt;/color&gt; e atacam aventureiros menos experientes.</t>
+  </si>
+  <si>
+    <t>Moradores relataram ouvir canções dos &lt;color=red&gt;Bahar&lt;/color&gt; perto de um pequeno lago próximo a &lt;color=red&gt;{0}&lt;/color&gt; sempre que &lt;color=red&gt;chove&lt;/color&gt;...</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;Bandidos&lt;/color&gt; têm atacado caravanas perto de &lt;color=red&gt;{0}&lt;/color&gt;!</t>
   </si>
 </sst>
 </file>
@@ -238,7 +238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -265,6 +265,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -628,12 +631,12 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="240.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="226.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45">
@@ -698,7 +701,7 @@
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
     </row>
